--- a/proceso/2 NSE (Nivel socioeconomico)/coordenadas.xlsx
+++ b/proceso/2 NSE (Nivel socioeconomico)/coordenadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lun1y\OneDrive\Documentos\GitHub\DeteccionBotonesII\proceso\2 NSE (Nivel socioeconomico)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{839ED68B-B97C-41FE-A8F8-BCF91193E335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3142C0-8AC8-4A4A-A81C-D2ECF7DDEF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3D8E841-311E-4901-BDC3-A737876E1337}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{A3D8E841-311E-4901-BDC3-A737876E1337}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -111,10 +111,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,12 +142,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -148,6 +149,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,19 +190,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,7 +540,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,18 +549,18 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
       <c r="L1" s="1"/>
       <c r="M1" s="2" t="s">
         <v>6</v>
@@ -564,28 +571,28 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -599,7 +606,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1">
@@ -608,11 +615,11 @@
       <c r="C3" s="1">
         <v>563</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <f>B3-$M$2</f>
         <v>33</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="7">
         <f>C3-$N$2</f>
         <v>92</v>
       </c>
@@ -623,17 +630,17 @@
         <f>C3</f>
         <v>563</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="7">
         <f>F3-$M$2</f>
         <v>163</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="7">
         <f>G3-$N$2</f>
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1">
@@ -642,11 +649,11 @@
       <c r="C4" s="1">
         <v>602</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <f t="shared" ref="D4:D15" si="0">B4-$M$2</f>
         <v>33</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
         <f t="shared" ref="E4:E15" si="1">C4-$N$2</f>
         <v>131</v>
       </c>
@@ -657,17 +664,17 @@
         <f t="shared" ref="G4:G13" si="2">C4</f>
         <v>602</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="7">
         <f>F4-$M$2</f>
         <v>163</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="7">
         <f t="shared" ref="I4:I13" si="3">G4-$N$2</f>
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1">
@@ -676,11 +683,11 @@
       <c r="C5" s="1">
         <v>630</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
         <f t="shared" si="1"/>
         <v>159</v>
       </c>
@@ -691,17 +698,17 @@
         <f t="shared" si="2"/>
         <v>630</v>
       </c>
-      <c r="H5" s="3">
-        <f t="shared" ref="H4:H13" si="4">F5-$M$2</f>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:H13" si="4">F5-$M$2</f>
         <v>163</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="7">
         <f t="shared" si="3"/>
         <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1">
@@ -710,11 +717,11 @@
       <c r="C6" s="1">
         <v>668</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
         <f t="shared" si="1"/>
         <v>197</v>
       </c>
@@ -725,17 +732,17 @@
         <f t="shared" si="2"/>
         <v>668</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="7">
         <f t="shared" si="4"/>
         <v>163</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="7">
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1">
@@ -744,11 +751,11 @@
       <c r="C7" s="1">
         <v>702</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
@@ -759,17 +766,17 @@
         <f t="shared" si="2"/>
         <v>702</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="7">
         <f t="shared" si="4"/>
         <v>163</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="7">
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1">
@@ -778,11 +785,11 @@
       <c r="C8" s="1">
         <v>563</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>398</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="7">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
@@ -793,17 +800,17 @@
         <f t="shared" si="2"/>
         <v>563</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="7">
         <f t="shared" si="4"/>
         <v>528</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="7">
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1">
@@ -812,11 +819,11 @@
       <c r="C9" s="1">
         <v>602</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>398</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="7">
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
@@ -827,17 +834,17 @@
         <f t="shared" si="2"/>
         <v>602</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="7">
         <f t="shared" si="4"/>
         <v>528</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="7">
         <f t="shared" si="3"/>
         <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1">
@@ -846,11 +853,11 @@
       <c r="C10" s="1">
         <v>630</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>398</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="7">
         <f t="shared" si="1"/>
         <v>159</v>
       </c>
@@ -861,17 +868,17 @@
         <f t="shared" si="2"/>
         <v>630</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="7">
         <f t="shared" si="4"/>
         <v>528</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="7">
         <f t="shared" si="3"/>
         <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1">
@@ -880,11 +887,11 @@
       <c r="C11" s="1">
         <v>772</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="7">
         <f t="shared" si="1"/>
         <v>301</v>
       </c>
@@ -895,17 +902,17 @@
         <f t="shared" si="2"/>
         <v>772</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="7">
         <f t="shared" si="4"/>
         <v>163</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="7">
         <f t="shared" si="3"/>
         <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1">
@@ -914,11 +921,11 @@
       <c r="C12" s="1">
         <v>804</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="7">
         <f t="shared" si="1"/>
         <v>333</v>
       </c>
@@ -929,17 +936,17 @@
         <f t="shared" si="2"/>
         <v>804</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="7">
         <f t="shared" si="4"/>
         <v>163</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="7">
         <f t="shared" si="3"/>
         <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1">
@@ -948,11 +955,11 @@
       <c r="C13" s="1">
         <v>838</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="7">
         <f t="shared" si="1"/>
         <v>367</v>
       </c>
@@ -963,17 +970,17 @@
         <f t="shared" si="2"/>
         <v>838</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="7">
         <f t="shared" si="4"/>
         <v>163</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="7">
         <f t="shared" si="3"/>
         <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="1">
@@ -982,11 +989,11 @@
       <c r="C14" s="1">
         <v>752</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="7">
         <f>B14-$M$2</f>
         <v>446</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="7">
         <f>C14-$N$2</f>
         <v>281</v>
       </c>
@@ -996,7 +1003,7 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="1">
@@ -1005,11 +1012,11 @@
       <c r="C15" s="1">
         <v>823</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="7">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="7">
         <f t="shared" si="1"/>
         <v>352</v>
       </c>

--- a/proceso/2 NSE (Nivel socioeconomico)/coordenadas.xlsx
+++ b/proceso/2 NSE (Nivel socioeconomico)/coordenadas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lun1y\OneDrive\Documentos\GitHub\DeteccionBotonesII\proceso\2 NSE (Nivel socioeconomico)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3142C0-8AC8-4A4A-A81C-D2ECF7DDEF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BB3856-374F-4D6E-AAFF-381E1C44CC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{A3D8E841-311E-4901-BDC3-A737876E1337}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3D8E841-311E-4901-BDC3-A737876E1337}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t xml:space="preserve">casilla </t>
   </si>
@@ -105,13 +106,121 @@
   </si>
   <si>
     <t>CERRAR</t>
+  </si>
+  <si>
+    <t>cierre</t>
+  </si>
+  <si>
+    <t>voz_cobre</t>
+  </si>
+  <si>
+    <t>127, 383</t>
+  </si>
+  <si>
+    <t>datos_sdom</t>
+  </si>
+  <si>
+    <t>138, 269</t>
+  </si>
+  <si>
+    <t>datos_fibra_telmex</t>
+  </si>
+  <si>
+    <t>152, 294</t>
+  </si>
+  <si>
+    <t>150, 323</t>
+  </si>
+  <si>
+    <t>tv_cable_otros</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>tvs</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>vetv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">servicio </t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>empresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cantidad </t>
+  </si>
+  <si>
+    <t>159, 355</t>
+  </si>
+  <si>
+    <t>datos_cobre_telmex</t>
+  </si>
+  <si>
+    <t>138, 270</t>
+  </si>
+  <si>
+    <t>menu_principal</t>
+  </si>
+  <si>
+    <t>campo_cantidad</t>
+  </si>
+  <si>
+    <t>boton_guardar</t>
+  </si>
+  <si>
+    <t>casilla_servicio</t>
+  </si>
+  <si>
+    <t>casilla_tipo</t>
+  </si>
+  <si>
+    <t>casilla_empresa</t>
+  </si>
+  <si>
+    <t>casilla_producto</t>
+  </si>
+  <si>
+    <t>ventana 2</t>
+  </si>
+  <si>
+    <t>(81 , 81)</t>
+  </si>
+  <si>
+    <t>(108 , 350)</t>
+  </si>
+  <si>
+    <t>(63 , 390)</t>
+  </si>
+  <si>
+    <t>(863 , 16)</t>
+  </si>
+  <si>
+    <t>(121 , 236)</t>
+  </si>
+  <si>
+    <t>(121 , 261)</t>
+  </si>
+  <si>
+    <t>(121 , 290)</t>
+  </si>
+  <si>
+    <t>(121 , 322)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +231,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -196,13 +311,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,30 +653,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAB8AA9-A71C-4F15-992E-791372AB3C95}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="I14" zoomScale="119" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19:R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="16" max="16" width="15.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
       <c r="L1" s="1"/>
       <c r="M1" s="2" t="s">
         <v>6</v>
@@ -570,7 +689,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -615,11 +734,11 @@
       <c r="C3" s="1">
         <v>563</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <f>B3-$M$2</f>
         <v>33</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <f>C3-$N$2</f>
         <v>92</v>
       </c>
@@ -630,13 +749,22 @@
         <f>C3</f>
         <v>563</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <f>F3-$M$2</f>
         <v>163</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <f>G3-$N$2</f>
         <v>92</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3">
+        <v>19</v>
+      </c>
+      <c r="N3">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -649,12 +777,12 @@
       <c r="C4" s="1">
         <v>602</v>
       </c>
-      <c r="D4" s="7">
-        <f t="shared" ref="D4:D15" si="0">B4-$M$2</f>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D24" si="0">B4-$M$2</f>
         <v>33</v>
       </c>
-      <c r="E4" s="7">
-        <f t="shared" ref="E4:E15" si="1">C4-$N$2</f>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E24" si="1">C4-$N$2</f>
         <v>131</v>
       </c>
       <c r="F4" s="1">
@@ -664,11 +792,11 @@
         <f t="shared" ref="G4:G13" si="2">C4</f>
         <v>602</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <f>F4-$M$2</f>
         <v>163</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <f t="shared" ref="I4:I13" si="3">G4-$N$2</f>
         <v>131</v>
       </c>
@@ -683,11 +811,11 @@
       <c r="C5" s="1">
         <v>630</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <f t="shared" si="1"/>
         <v>159</v>
       </c>
@@ -698,11 +826,11 @@
         <f t="shared" si="2"/>
         <v>630</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <f t="shared" ref="H5:H13" si="4">F5-$M$2</f>
         <v>163</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="5">
         <f t="shared" si="3"/>
         <v>159</v>
       </c>
@@ -717,11 +845,11 @@
       <c r="C6" s="1">
         <v>668</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <f t="shared" si="1"/>
         <v>197</v>
       </c>
@@ -732,11 +860,11 @@
         <f t="shared" si="2"/>
         <v>668</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <f t="shared" si="4"/>
         <v>163</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
@@ -751,11 +879,11 @@
       <c r="C7" s="1">
         <v>702</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
@@ -766,11 +894,11 @@
         <f t="shared" si="2"/>
         <v>702</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <f t="shared" si="4"/>
         <v>163</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
@@ -785,11 +913,11 @@
       <c r="C8" s="1">
         <v>563</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>398</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
@@ -800,11 +928,11 @@
         <f t="shared" si="2"/>
         <v>563</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <f t="shared" si="4"/>
         <v>528</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
@@ -819,11 +947,11 @@
       <c r="C9" s="1">
         <v>602</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>398</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
@@ -834,11 +962,11 @@
         <f t="shared" si="2"/>
         <v>602</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <f t="shared" si="4"/>
         <v>528</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <f t="shared" si="3"/>
         <v>131</v>
       </c>
@@ -853,11 +981,11 @@
       <c r="C10" s="1">
         <v>630</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>398</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <f t="shared" si="1"/>
         <v>159</v>
       </c>
@@ -868,11 +996,11 @@
         <f t="shared" si="2"/>
         <v>630</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <f t="shared" si="4"/>
         <v>528</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <f t="shared" si="3"/>
         <v>159</v>
       </c>
@@ -887,11 +1015,11 @@
       <c r="C11" s="1">
         <v>772</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <f t="shared" si="1"/>
         <v>301</v>
       </c>
@@ -902,11 +1030,11 @@
         <f t="shared" si="2"/>
         <v>772</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <f t="shared" si="4"/>
         <v>163</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <f t="shared" si="3"/>
         <v>301</v>
       </c>
@@ -921,11 +1049,11 @@
       <c r="C12" s="1">
         <v>804</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <f t="shared" si="1"/>
         <v>333</v>
       </c>
@@ -936,11 +1064,11 @@
         <f t="shared" si="2"/>
         <v>804</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <f t="shared" si="4"/>
         <v>163</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <f t="shared" si="3"/>
         <v>333</v>
       </c>
@@ -955,11 +1083,11 @@
       <c r="C13" s="1">
         <v>838</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <f t="shared" si="1"/>
         <v>367</v>
       </c>
@@ -970,11 +1098,11 @@
         <f t="shared" si="2"/>
         <v>838</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <f t="shared" si="4"/>
         <v>163</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="5">
         <f t="shared" si="3"/>
         <v>367</v>
       </c>
@@ -989,11 +1117,11 @@
       <c r="C14" s="1">
         <v>752</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <f>B14-$M$2</f>
         <v>446</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <f>C14-$N$2</f>
         <v>281</v>
       </c>
@@ -1012,18 +1140,290 @@
       <c r="C15" s="1">
         <v>823</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-      <c r="E15" s="7">
-        <f t="shared" si="1"/>
-        <v>352</v>
+      <c r="E15" s="5">
+        <f>C15-$N$3</f>
+        <v>790</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>114</v>
+      </c>
+      <c r="D17" s="5">
+        <f>B17-$M$3</f>
+        <v>81</v>
+      </c>
+      <c r="E17" s="5">
+        <f>C17-$N$3</f>
+        <v>81</v>
+      </c>
+      <c r="F17" t="str">
+        <f>_xlfn.CONCAT("(",D17," , ",E17,")")</f>
+        <v>(81 , 81)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>127</v>
+      </c>
+      <c r="C18">
+        <v>383</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" ref="D18:D24" si="5">B18-$M$3</f>
+        <v>108</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" ref="E18:E24" si="6">C18-$N$3</f>
+        <v>350</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" ref="F18:F24" si="7">_xlfn.CONCAT("(",D18," , ",E18,")")</f>
+        <v>(108 , 350)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <v>82</v>
+      </c>
+      <c r="C19">
+        <v>423</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="7"/>
+        <v>(63 , 390)</v>
+      </c>
+      <c r="P19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>51</v>
+      </c>
+      <c r="R19" t="str">
+        <f>_xlfn.CONCAT(P19," ",Q19)</f>
+        <v>menu_principal (81 , 81)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>882</v>
+      </c>
+      <c r="C20">
+        <v>49</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="5"/>
+        <v>863</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="7"/>
+        <v>(863 , 16)</v>
+      </c>
+      <c r="P20" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>52</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" ref="R20:R26" si="8">_xlfn.CONCAT(P20," ",Q20)</f>
+        <v>campo_cantidad (108 , 350)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>140</v>
+      </c>
+      <c r="C21">
+        <v>269</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="5"/>
+        <v>121</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="6"/>
+        <v>236</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="7"/>
+        <v>(121 , 236)</v>
+      </c>
+      <c r="P21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>53</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="8"/>
+        <v>boton_guardar (63 , 390)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>140</v>
+      </c>
+      <c r="C22">
+        <v>294</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="5"/>
+        <v>121</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="6"/>
+        <v>261</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="7"/>
+        <v>(121 , 261)</v>
+      </c>
+      <c r="P22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>54</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="8"/>
+        <v>cierre (863 , 16)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23">
+        <v>140</v>
+      </c>
+      <c r="C23">
+        <v>323</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="5"/>
+        <v>121</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="6"/>
+        <v>290</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="7"/>
+        <v>(121 , 290)</v>
+      </c>
+      <c r="P23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>55</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="8"/>
+        <v>casilla_servicio (121 , 236)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>140</v>
+      </c>
+      <c r="C24">
+        <v>355</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="5"/>
+        <v>121</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="6"/>
+        <v>322</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="7"/>
+        <v>(121 , 322)</v>
+      </c>
+      <c r="P24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="8"/>
+        <v>casilla_tipo (121 , 261)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P25" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>57</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="8"/>
+        <v>casilla_empresa (121 , 290)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P26" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>58</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="8"/>
+        <v>casilla_producto (121 , 322)</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1034,4 +1434,155 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8630CE99-BA7D-4480-B895-8AC247A7BD5B}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/proceso/2 NSE (Nivel socioeconomico)/coordenadas.xlsx
+++ b/proceso/2 NSE (Nivel socioeconomico)/coordenadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lun1y\OneDrive\Documentos\GitHub\DeteccionBotonesII\proceso\2 NSE (Nivel socioeconomico)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BB3856-374F-4D6E-AAFF-381E1C44CC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0DF9E3-5364-4A84-A2F5-136957BD6141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3D8E841-311E-4901-BDC3-A737876E1337}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A3D8E841-311E-4901-BDC3-A737876E1337}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t xml:space="preserve">casilla </t>
   </si>
@@ -214,13 +214,40 @@
   </si>
   <si>
     <t>(121 , 322)</t>
+  </si>
+  <si>
+    <t>__</t>
+  </si>
+  <si>
+    <t>datos</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>voz</t>
+  </si>
+  <si>
+    <t>cobre</t>
+  </si>
+  <si>
+    <t>fibbra</t>
+  </si>
+  <si>
+    <t>inalambrica</t>
+  </si>
+  <si>
+    <t>publico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">producto </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +264,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -301,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -312,13 +347,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAB8AA9-A71C-4F15-992E-791372AB3C95}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I14" zoomScale="119" workbookViewId="0">
+    <sheetView topLeftCell="I14" zoomScale="119" workbookViewId="0">
       <selection activeCell="R19" sqref="R19:R26"/>
     </sheetView>
   </sheetViews>
@@ -665,21 +701,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
       <c r="L1" s="1"/>
       <c r="M1" s="2" t="s">
         <v>6</v>
@@ -689,7 +725,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -778,11 +814,11 @@
         <v>602</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D24" si="0">B4-$M$2</f>
+        <f t="shared" ref="D4:D15" si="0">B4-$M$2</f>
         <v>33</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E24" si="1">C4-$N$2</f>
+        <f t="shared" ref="E4:E13" si="1">C4-$N$2</f>
         <v>131</v>
       </c>
       <c r="F4" s="1">
@@ -1154,8 +1190,8 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1438,15 +1474,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8630CE99-BA7D-4480-B895-8AC247A7BD5B}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1475,7 +1511,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -1503,8 +1539,20 @@
       <c r="J2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>29</v>
       </c>
@@ -1523,8 +1571,20 @@
       <c r="J3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>30</v>
       </c>
@@ -1546,13 +1606,17 @@
       <c r="J4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>

--- a/proceso/2 NSE (Nivel socioeconomico)/coordenadas.xlsx
+++ b/proceso/2 NSE (Nivel socioeconomico)/coordenadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lun1y\OneDrive\Documentos\GitHub\DeteccionBotonesII\proceso\2 NSE (Nivel socioeconomico)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0DF9E3-5364-4A84-A2F5-136957BD6141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1A5A12-C760-4E74-AF64-4B9AC687BFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A3D8E841-311E-4901-BDC3-A737876E1337}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3D8E841-311E-4901-BDC3-A737876E1337}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
   <si>
     <t xml:space="preserve">casilla </t>
   </si>
@@ -241,6 +241,18 @@
   </si>
   <si>
     <t xml:space="preserve">producto </t>
+  </si>
+  <si>
+    <t>campo_texto</t>
+  </si>
+  <si>
+    <t>agregar_texto</t>
+  </si>
+  <si>
+    <t>cerrar_ventana_texto</t>
+  </si>
+  <si>
+    <t>ventana 3</t>
   </si>
 </sst>
 </file>
@@ -336,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -348,13 +360,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAB8AA9-A71C-4F15-992E-791372AB3C95}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView topLeftCell="I14" zoomScale="119" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19:R26"/>
+    <sheetView tabSelected="1" topLeftCell="H13" zoomScale="119" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,21 +714,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
       <c r="L1" s="1"/>
       <c r="M1" s="2" t="s">
         <v>6</v>
@@ -725,7 +738,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -835,6 +848,15 @@
       <c r="I4" s="5">
         <f t="shared" ref="I4:I13" si="3">G4-$N$2</f>
         <v>131</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4">
+        <v>1199</v>
+      </c>
+      <c r="N4">
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1227,11 +1249,11 @@
         <v>383</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" ref="D18:D24" si="5">B18-$M$3</f>
+        <f t="shared" ref="D18:D28" si="5">B18-$M$3</f>
         <v>108</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" ref="E18:E24" si="6">C18-$N$3</f>
+        <f t="shared" ref="E18:E28" si="6">C18-$N$3</f>
         <v>350</v>
       </c>
       <c r="F18" t="str">
@@ -1301,7 +1323,7 @@
         <v>52</v>
       </c>
       <c r="R20" t="str">
-        <f t="shared" ref="R20:R26" si="8">_xlfn.CONCAT(P20," ",Q20)</f>
+        <f t="shared" ref="R20:R29" si="8">_xlfn.CONCAT(P20," ",Q20)</f>
         <v>campo_cantidad (108 , 350)</v>
       </c>
     </row>
@@ -1438,6 +1460,8 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
       <c r="P25" t="s">
         <v>48</v>
       </c>
@@ -1450,6 +1474,23 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26">
+        <v>1421</v>
+      </c>
+      <c r="C26">
+        <v>526</v>
+      </c>
+      <c r="D26" s="5">
+        <f>B26-$M$4</f>
+        <v>222</v>
+      </c>
+      <c r="E26" s="5">
+        <f>C26-$N$4</f>
+        <v>54</v>
+      </c>
       <c r="P26" t="s">
         <v>49</v>
       </c>
@@ -1457,8 +1498,84 @@
         <v>58</v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" si="8"/>
-        <v>casilla_producto (121 , 322)</v>
+        <f>_xlfn.CONCAT("'",P26,"' : "," ",Q26,",")</f>
+        <v>'casilla_producto' :  (121 , 322),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27">
+        <v>1263</v>
+      </c>
+      <c r="C27">
+        <v>572</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" ref="D27:D28" si="9">B27-$M$4</f>
+        <v>64</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" ref="E27:E28" si="10">C27-$N$4</f>
+        <v>100</v>
+      </c>
+      <c r="P27" t="str">
+        <f>A26</f>
+        <v>campo_texto</v>
+      </c>
+      <c r="Q27" t="str">
+        <f>_xlfn.CONCAT("(",D26," , ",E26,")")</f>
+        <v>(222 , 54)</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" ref="R27:R29" si="11">_xlfn.CONCAT("'",P27,"' : "," ",Q27,",")</f>
+        <v>'campo_texto' :  (222 , 54),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28">
+        <v>1338</v>
+      </c>
+      <c r="C28">
+        <v>570</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="9"/>
+        <v>139</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="10"/>
+        <v>98</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" ref="P28:P29" si="12">A27</f>
+        <v>agregar_texto</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" ref="Q28:Q29" si="13">_xlfn.CONCAT("(",D27," , ",E27,")")</f>
+        <v>(64 , 100)</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="11"/>
+        <v>'agregar_texto' :  (64 , 100),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P29" t="str">
+        <f t="shared" si="12"/>
+        <v>cerrar_ventana_texto</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="13"/>
+        <v>(139 , 98)</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="11"/>
+        <v>'cerrar_ventana_texto' :  (139 , 98),</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +1593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8630CE99-BA7D-4480-B895-8AC247A7BD5B}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -1606,7 +1723,7 @@
       <c r="J4" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
